--- a/InsightTest1/src/main/java/testdata/Automation Input File.xlsx
+++ b/InsightTest1/src/main/java/testdata/Automation Input File.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="315" windowWidth="19875" windowHeight="7470" firstSheet="4" activeTab="6"/>
+    <workbookView xWindow="480" yWindow="315" windowWidth="19875" windowHeight="7470" firstSheet="7" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="AddSubcontractor" sheetId="1" r:id="rId1"/>
@@ -16,13 +16,17 @@
     <sheet name="T1AddEmployee" sheetId="9" r:id="rId7"/>
     <sheet name="T1ImportEmployee" sheetId="10" r:id="rId8"/>
     <sheet name="T1EditImport" sheetId="11" r:id="rId9"/>
+    <sheet name="T1AddEmployee1" sheetId="12" r:id="rId10"/>
+    <sheet name="T1WorkClasses" sheetId="14" r:id="rId11"/>
+    <sheet name="T1ManualPayroll" sheetId="15" r:id="rId12"/>
+    <sheet name="T1EditPayroll" sheetId="16" r:id="rId13"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="285">
   <si>
     <t>EIN</t>
   </si>
@@ -303,27 +307,9 @@
     <t>11111 - Soybean Farming</t>
   </si>
   <si>
-    <t>5467899</t>
-  </si>
-  <si>
     <t>11-1011 - Chief Executives</t>
   </si>
   <si>
-    <t>12/28/2021</t>
-  </si>
-  <si>
-    <t>015-06 - Addressing Machine Supplies, Metal And Plastic Plate Type</t>
-  </si>
-  <si>
-    <t>dsubt1@orchid-software.com</t>
-  </si>
-  <si>
-    <t>New Automation Test SubcontractorDecember21</t>
-  </si>
-  <si>
-    <t>123-16-3164</t>
-  </si>
-  <si>
     <t>PayrollSchedule</t>
   </si>
   <si>
@@ -351,15 +337,6 @@
     <t>QA Specialist</t>
   </si>
   <si>
-    <t>263-45-3167</t>
-  </si>
-  <si>
-    <t>New Automation Tier2 Subcontractor 2/2/2022</t>
-  </si>
-  <si>
-    <t>1545441545</t>
-  </si>
-  <si>
     <t>11-3013 - Facilities Managers</t>
   </si>
   <si>
@@ -576,15 +553,9 @@
     <t>D</t>
   </si>
   <si>
-    <t>634125</t>
-  </si>
-  <si>
     <t>LayoutName</t>
   </si>
   <si>
-    <t>AutomationLayout</t>
-  </si>
-  <si>
     <t>To</t>
   </si>
   <si>
@@ -678,15 +649,6 @@
     <t>01/01/2009</t>
   </si>
   <si>
-    <t>Azhiya, Manasan</t>
-  </si>
-  <si>
-    <t>Ezhil, Arasi</t>
-  </si>
-  <si>
-    <t>3625</t>
-  </si>
-  <si>
     <t>Nadha</t>
   </si>
   <si>
@@ -696,7 +658,229 @@
     <t>3662</t>
   </si>
   <si>
-    <t>7946381</t>
+    <t>BaseRate2</t>
+  </si>
+  <si>
+    <t>OTRate2</t>
+  </si>
+  <si>
+    <t>DTRate2</t>
+  </si>
+  <si>
+    <t>FringeRate2</t>
+  </si>
+  <si>
+    <t>Item 1</t>
+  </si>
+  <si>
+    <t>White</t>
+  </si>
+  <si>
+    <t>151545</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>WorkClass</t>
+  </si>
+  <si>
+    <t>Cell Phone Repair</t>
+  </si>
+  <si>
+    <t>Search</t>
+  </si>
+  <si>
+    <t>Mapping1</t>
+  </si>
+  <si>
+    <t>Mapping2</t>
+  </si>
+  <si>
+    <t>Mapping3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>WorkClass1</t>
+  </si>
+  <si>
+    <t>WorkClass2</t>
+  </si>
+  <si>
+    <t>12/28/2023</t>
+  </si>
+  <si>
+    <t>SubcontratorType</t>
+  </si>
+  <si>
+    <t>154514</t>
+  </si>
+  <si>
+    <t>113-45-3167</t>
+  </si>
+  <si>
+    <t>New Automation Tier2 Subcontractor March 2022</t>
+  </si>
+  <si>
+    <t>Shamili</t>
+  </si>
+  <si>
+    <t>AutomationLayoutNew</t>
+  </si>
+  <si>
+    <t>Abinaya</t>
+  </si>
+  <si>
+    <t>3412</t>
+  </si>
+  <si>
+    <t>978141451</t>
+  </si>
+  <si>
+    <t>1728</t>
+  </si>
+  <si>
+    <t>6311241</t>
+  </si>
+  <si>
+    <t>Mounish, Anish</t>
+  </si>
+  <si>
+    <t>Shamili, Abinaya</t>
+  </si>
+  <si>
+    <t>SelectTimePeriod</t>
+  </si>
+  <si>
+    <t>03/07/2022 - 03/13/2022</t>
+  </si>
+  <si>
+    <t>SelectDate1</t>
+  </si>
+  <si>
+    <t>OT1</t>
+  </si>
+  <si>
+    <t>DT1</t>
+  </si>
+  <si>
+    <t>Hours1</t>
+  </si>
+  <si>
+    <t>OtherEarnings1</t>
+  </si>
+  <si>
+    <t>Fica1</t>
+  </si>
+  <si>
+    <t>Withholding</t>
+  </si>
+  <si>
+    <t>Local</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Excemption1</t>
+  </si>
+  <si>
+    <t>NonProjectHours1</t>
+  </si>
+  <si>
+    <t>NonProjectWages1</t>
+  </si>
+  <si>
+    <t>SelectDate2</t>
+  </si>
+  <si>
+    <t>SelectDate3</t>
+  </si>
+  <si>
+    <t>Hours2</t>
+  </si>
+  <si>
+    <t>OT2</t>
+  </si>
+  <si>
+    <t>DT2</t>
+  </si>
+  <si>
+    <t>3/7/2022 (Mon)</t>
+  </si>
+  <si>
+    <t>3/10/2022 (Thu)</t>
+  </si>
+  <si>
+    <t>3/12/2022 (Sat)</t>
+  </si>
+  <si>
+    <t>Day4</t>
+  </si>
+  <si>
+    <t>3/11/2022 (Fri)</t>
+  </si>
+  <si>
+    <t>OT4</t>
+  </si>
+  <si>
+    <t>DT4</t>
+  </si>
+  <si>
+    <t>Hours4</t>
+  </si>
+  <si>
+    <t>Fica3</t>
+  </si>
+  <si>
+    <t>State3</t>
+  </si>
+  <si>
+    <t>Witholding3</t>
+  </si>
+  <si>
+    <t>11116 - Rice Farming</t>
+  </si>
+  <si>
+    <t>Subcontractor Creation April 2022</t>
+  </si>
+  <si>
+    <t>54678745</t>
+  </si>
+  <si>
+    <t>381-27-3164</t>
+  </si>
+  <si>
+    <t>aprt1sub@orchid-software.com</t>
+  </si>
+  <si>
+    <t>April Subcontractor</t>
+  </si>
+  <si>
+    <t>Shamili, Abinaya m</t>
+  </si>
+  <si>
+    <t>Day1</t>
+  </si>
+  <si>
+    <t>03/09/2022</t>
+  </si>
+  <si>
+    <t>Day2</t>
+  </si>
+  <si>
+    <t>3/10/2022</t>
+  </si>
+  <si>
+    <t>Name</t>
   </si>
 </sst>
 </file>
@@ -706,7 +890,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -757,6 +941,13 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0288D1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -779,7 +970,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
@@ -799,6 +990,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1103,8 +1295,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AX2"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView topLeftCell="AE1" workbookViewId="0">
+      <selection activeCell="AL10" sqref="AL10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1267,13 +1459,13 @@
     </row>
     <row r="2" spans="1:50">
       <c r="A2" t="s">
-        <v>99</v>
+        <v>276</v>
       </c>
       <c r="B2" t="s">
-        <v>98</v>
+        <v>274</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>93</v>
+        <v>275</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -1288,7 +1480,7 @@
         <v>6</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="I2" t="s">
         <v>36</v>
@@ -1358,14 +1550,14 @@
       <c r="AF2" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="AG2" s="10" t="s">
-        <v>92</v>
+      <c r="AG2" s="7" t="s">
+        <v>273</v>
       </c>
       <c r="AH2" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AI2" s="7" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="AJ2" t="s">
         <v>87</v>
@@ -1386,16 +1578,16 @@
         <v>72</v>
       </c>
       <c r="AP2" s="3" t="s">
-        <v>95</v>
+        <v>229</v>
       </c>
       <c r="AQ2" s="8" t="s">
-        <v>97</v>
+        <v>277</v>
       </c>
       <c r="AR2" t="s">
         <v>10</v>
       </c>
       <c r="AS2" t="s">
-        <v>89</v>
+        <v>278</v>
       </c>
       <c r="AT2" t="s">
         <v>13</v>
@@ -1404,7 +1596,7 @@
         <v>15</v>
       </c>
       <c r="AV2" s="8" t="s">
-        <v>97</v>
+        <v>277</v>
       </c>
       <c r="AW2" t="s">
         <v>16</v>
@@ -1416,6 +1608,443 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>216</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>226</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AB2"/>
+  <sheetViews>
+    <sheetView topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AC1" sqref="AC1:AN3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28">
+      <c r="A1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D1" t="s">
+        <v>246</v>
+      </c>
+      <c r="E1" t="s">
+        <v>247</v>
+      </c>
+      <c r="F1" t="s">
+        <v>249</v>
+      </c>
+      <c r="G1" t="s">
+        <v>257</v>
+      </c>
+      <c r="H1" t="s">
+        <v>259</v>
+      </c>
+      <c r="I1" t="s">
+        <v>260</v>
+      </c>
+      <c r="J1" t="s">
+        <v>261</v>
+      </c>
+      <c r="K1" t="s">
+        <v>258</v>
+      </c>
+      <c r="L1" t="s">
+        <v>248</v>
+      </c>
+      <c r="M1" t="s">
+        <v>246</v>
+      </c>
+      <c r="N1" t="s">
+        <v>250</v>
+      </c>
+      <c r="O1" t="s">
+        <v>251</v>
+      </c>
+      <c r="P1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>252</v>
+      </c>
+      <c r="R1" t="s">
+        <v>253</v>
+      </c>
+      <c r="S1" t="s">
+        <v>254</v>
+      </c>
+      <c r="T1" t="s">
+        <v>255</v>
+      </c>
+      <c r="U1" t="s">
+        <v>256</v>
+      </c>
+      <c r="V1" t="s">
+        <v>265</v>
+      </c>
+      <c r="W1" t="s">
+        <v>269</v>
+      </c>
+      <c r="X1" t="s">
+        <v>267</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>268</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>270</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>272</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28">
+      <c r="A2" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="C2">
+        <v>10.5</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
+      <c r="F2">
+        <v>10</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
+      <c r="I2">
+        <v>5</v>
+      </c>
+      <c r="J2">
+        <v>5</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="M2">
+        <v>5</v>
+      </c>
+      <c r="N2">
+        <v>15.5</v>
+      </c>
+      <c r="O2">
+        <v>5</v>
+      </c>
+      <c r="P2">
+        <v>10</v>
+      </c>
+      <c r="Q2">
+        <v>5</v>
+      </c>
+      <c r="R2">
+        <v>5</v>
+      </c>
+      <c r="S2">
+        <v>100</v>
+      </c>
+      <c r="T2">
+        <v>10</v>
+      </c>
+      <c r="U2">
+        <v>200</v>
+      </c>
+      <c r="V2" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="W2">
+        <v>10</v>
+      </c>
+      <c r="X2">
+        <v>5</v>
+      </c>
+      <c r="Y2">
+        <v>5.4</v>
+      </c>
+      <c r="Z2">
+        <v>200</v>
+      </c>
+      <c r="AA2">
+        <v>30</v>
+      </c>
+      <c r="AB2">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:19">
+      <c r="A1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C1" t="s">
+        <v>280</v>
+      </c>
+      <c r="D1" t="s">
+        <v>248</v>
+      </c>
+      <c r="E1" t="s">
+        <v>246</v>
+      </c>
+      <c r="F1" t="s">
+        <v>247</v>
+      </c>
+      <c r="G1" t="s">
+        <v>249</v>
+      </c>
+      <c r="H1" t="s">
+        <v>250</v>
+      </c>
+      <c r="I1" t="s">
+        <v>251</v>
+      </c>
+      <c r="J1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K1" t="s">
+        <v>252</v>
+      </c>
+      <c r="L1" t="s">
+        <v>253</v>
+      </c>
+      <c r="M1" t="s">
+        <v>254</v>
+      </c>
+      <c r="N1" t="s">
+        <v>255</v>
+      </c>
+      <c r="O1" t="s">
+        <v>256</v>
+      </c>
+      <c r="P1" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>248</v>
+      </c>
+      <c r="R1" t="s">
+        <v>246</v>
+      </c>
+      <c r="S1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="D2">
+        <v>10.5</v>
+      </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
+      <c r="F2">
+        <v>5</v>
+      </c>
+      <c r="G2">
+        <v>10</v>
+      </c>
+      <c r="H2">
+        <v>15.5</v>
+      </c>
+      <c r="I2">
+        <v>5</v>
+      </c>
+      <c r="J2">
+        <v>10</v>
+      </c>
+      <c r="K2">
+        <v>5</v>
+      </c>
+      <c r="L2">
+        <v>5</v>
+      </c>
+      <c r="M2">
+        <v>100</v>
+      </c>
+      <c r="N2">
+        <v>10</v>
+      </c>
+      <c r="O2">
+        <v>200</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="R2">
+        <v>5</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>234</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1559,20 +2188,20 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B1" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C1" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1583,7 +2212,7 @@
         <v>25</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1604,13 +2233,13 @@
   <sheetData>
     <row r="1" spans="1:23">
       <c r="A1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B1" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C1" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -1657,40 +2286,46 @@
       <c r="R1" t="s">
         <v>85</v>
       </c>
+      <c r="S1" t="s">
+        <v>230</v>
+      </c>
+      <c r="T1" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="2" spans="1:23">
-      <c r="A2" t="s">
-        <v>23</v>
+      <c r="A2">
+        <v>1111112</v>
       </c>
       <c r="B2" t="s">
         <v>25</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D2" t="s">
-        <v>109</v>
+        <v>232</v>
       </c>
       <c r="E2" t="s">
-        <v>110</v>
+        <v>233</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>111</v>
+        <v>231</v>
       </c>
       <c r="G2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>21</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>62</v>
@@ -1708,10 +2343,16 @@
         <v>92</v>
       </c>
       <c r="Q2" s="7" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="R2" s="7" t="s">
-        <v>113</v>
+        <v>104</v>
+      </c>
+      <c r="S2" t="s">
+        <v>87</v>
+      </c>
+      <c r="T2">
+        <v>60</v>
       </c>
       <c r="W2" s="8"/>
     </row>
@@ -1723,10 +2364,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BB2"/>
+  <dimension ref="A1:BL2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="BM2" sqref="BM2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1737,21 +2378,21 @@
     <col min="44" max="44" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54">
+    <row r="1" spans="1:64">
       <c r="A1" t="s">
         <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="C1" t="s">
         <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="E1" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="F1" t="s">
         <v>19</v>
@@ -1763,302 +2404,362 @@
         <v>14</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>66</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q1" s="1" t="s">
+      <c r="T1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="T1" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF1" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="AA1" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AO1" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="BF1" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="AH1" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="BB1" s="1" t="s">
-        <v>179</v>
+      <c r="BG1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>213</v>
       </c>
     </row>
-    <row r="2" spans="1:54" ht="17.25">
-      <c r="A2" t="s">
-        <v>222</v>
+    <row r="2" spans="1:64" ht="17.25">
+      <c r="A2" s="6" t="s">
+        <v>236</v>
       </c>
       <c r="B2" t="s">
-        <v>183</v>
+        <v>217</v>
       </c>
       <c r="C2" t="s">
-        <v>221</v>
+        <v>234</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>223</v>
+        <v>237</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
       </c>
       <c r="G2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" s="14" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="L2" t="s">
         <v>38</v>
       </c>
       <c r="M2" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="Q2" s="4" t="s">
         <v>41</v>
       </c>
       <c r="R2" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="S2" s="6" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="T2" s="10" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="U2" s="4" t="s">
         <v>72</v>
       </c>
       <c r="V2" s="4" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="W2" s="10" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="X2" s="4" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="Y2" s="4" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="Z2" s="10" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="AA2" s="15" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="AB2" s="10" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="AC2" s="4" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="AD2" s="4" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="AE2" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="AF2" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="AG2" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="AH2" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="AI2" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="AJ2" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="AK2" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="AL2" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="AM2" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="AN2" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="AO2" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="AP2" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="AF2" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="AG2" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="AH2" s="6" t="s">
+      <c r="AQ2" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="AR2" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="AS2" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>215</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>168</v>
+      </c>
+      <c r="AW2" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="AI2" s="10" t="s">
+      <c r="AX2" s="2"/>
+      <c r="AY2" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>38</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>71</v>
+      </c>
+      <c r="BB2" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="BC2" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="BD2" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="BE2" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="BF2" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="BG2" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="BH2" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="BI2" s="6">
+        <v>70</v>
+      </c>
+      <c r="BJ2" s="6">
+        <v>80</v>
+      </c>
+      <c r="BK2" s="6">
+        <v>90</v>
+      </c>
+      <c r="BL2" s="6" t="s">
         <v>161</v>
-      </c>
-      <c r="AJ2" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="AK2" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="AL2" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="AM2" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="AN2" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="AO2" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="AP2" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="AQ2" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="AR2" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="AS2" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>177</v>
-      </c>
-      <c r="AU2" s="14" t="s">
-        <v>175</v>
-      </c>
-      <c r="AV2" s="2"/>
-      <c r="AW2" s="14" t="s">
-        <v>176</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AZ2" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="BA2" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="BB2" s="6" t="s">
-        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -2072,85 +2773,85 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F1" t="s">
+        <v>174</v>
+      </c>
+      <c r="G1" t="s">
+        <v>184</v>
+      </c>
+      <c r="H1" t="s">
         <v>185</v>
       </c>
-      <c r="B1" t="s">
+      <c r="I1" t="s">
+        <v>186</v>
+      </c>
+      <c r="J1" t="s">
         <v>187</v>
       </c>
-      <c r="C1" t="s">
+      <c r="K1" t="s">
+        <v>188</v>
+      </c>
+      <c r="L1" t="s">
         <v>189</v>
       </c>
-      <c r="D1" t="s">
+      <c r="M1" t="s">
         <v>190</v>
       </c>
-      <c r="E1" t="s">
+      <c r="N1" t="s">
         <v>191</v>
       </c>
-      <c r="F1" t="s">
-        <v>183</v>
-      </c>
-      <c r="G1" t="s">
-        <v>195</v>
-      </c>
-      <c r="H1" t="s">
-        <v>196</v>
-      </c>
-      <c r="I1" t="s">
-        <v>197</v>
-      </c>
-      <c r="J1" t="s">
-        <v>198</v>
-      </c>
-      <c r="K1" t="s">
-        <v>199</v>
-      </c>
-      <c r="L1" t="s">
-        <v>200</v>
-      </c>
-      <c r="M1" t="s">
-        <v>201</v>
-      </c>
-      <c r="N1" t="s">
-        <v>202</v>
-      </c>
       <c r="O1" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="P1" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="Q1" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" t="s">
-        <v>186</v>
+        <v>235</v>
       </c>
       <c r="B2" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="C2" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="D2" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="E2" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="F2" t="s">
         <v>194</v>
       </c>
-      <c r="F2" t="s">
-        <v>205</v>
-      </c>
       <c r="G2" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>19</v>
@@ -2162,25 +2863,25 @@
         <v>14</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>66</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -2191,103 +2892,109 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="17" max="17" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>138</v>
-      </c>
       <c r="H1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>152</v>
-      </c>
       <c r="Q1" s="1" t="s">
-        <v>211</v>
+        <v>144</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>200</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:18">
       <c r="A2" s="16" t="s">
-        <v>218</v>
+        <v>242</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="C2" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>56</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="I2" s="15" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="M2" s="6">
         <v>25</v>
@@ -2301,11 +3008,15 @@
       <c r="P2" s="6">
         <v>20</v>
       </c>
-      <c r="Q2" s="16" t="s">
-        <v>219</v>
+      <c r="Q2" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="R2" s="17" t="s">
+        <v>241</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>